--- a/patients.xlsx
+++ b/patients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levol\OneDrive\School\Python\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc0769987a74be4/School/Python/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA57FD87-06BC-4868-B05F-941C7A5C57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{EA57FD87-06BC-4868-B05F-941C7A5C57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE9746F-B74D-4013-9E27-7D8C2257162E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B71A7A01-C8F3-4E8C-883B-9901E6E3D41E}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>jakelevolpehh@gmail.com</t>
-  </si>
-  <si>
     <t>jacob@gmail.com</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>Jeel</t>
-  </si>
-  <si>
-    <t>jeelhpatel10@gmail.com</t>
   </si>
   <si>
     <t>12-13-2022</t>
@@ -160,6 +154,12 @@
     <t>New Patient
 Wears Progressives
 Big Spender</t>
+  </si>
+  <si>
+    <t>jeel@gmail.com</t>
+  </si>
+  <si>
+    <t>jake@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +537,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +568,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -601,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>2.5</v>
@@ -631,14 +633,14 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -665,16 +667,16 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3">
         <v>0.5</v>
@@ -692,27 +694,27 @@
         <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>0.5</v>
@@ -724,10 +726,10 @@
         <v>180</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
